--- a/target/test-classes/testdata/ExelenterEmployeesList.xlsx
+++ b/target/test-classes/testdata/ExelenterEmployeesList.xlsx
@@ -5,13 +5,12 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Employee" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="Sheet4" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="NegativeLoginTests" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -695,39 +694,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;Kffffff&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;KffffffPage &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:C9"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E16" activeCellId="0" sqref="E16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.6171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="22.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="8.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="14.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="22.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16368" style="0" width="10.49"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -819,11 +797,11 @@
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;Kffffff&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;KffffffPage &amp;P</oddFooter>
+    <oddHeader/>
+    <oddFooter/>
   </headerFooter>
 </worksheet>
 </file>